--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-84228.42901841072</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20105524.49589032</v>
+        <v>14504503.06052411</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1975042.235761816</v>
       </c>
     </row>
     <row r="11">
@@ -1841,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
     </row>
     <row r="18">
@@ -1980,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>2.677227098474517</v>
       </c>
     </row>
     <row r="19">
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.402203503702471</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2141,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2157,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>2.677227098474517</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2217,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.40220350370247</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2381,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>149.6157531058527</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="25">
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>211.8755873705607</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>35.43041353070757</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2631,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="28">
@@ -2722,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2801,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>347.3207662723228</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="31">
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>80.85496735608342</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>156.7012890994286</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="34">
@@ -3190,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>131.3576479578672</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>392.8310130470533</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3342,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>31.62322353306969</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7.984472406171453</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3487,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>386.5350575123539</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3579,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="40">
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>34.51516921304759</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>176.1446634785938</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,25 +3869,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="43">
@@ -3898,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3955,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>167.8191401812166</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>328.5107569703947</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>82.55</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>124.8306395731037</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="46">
@@ -4138,13 +4140,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>99.39993757081376</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.160310701713751</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2.508138455589632</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>6.040770853278587</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>7.931409106423311</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>9.716685196678942</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.75469172716204</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.852011837538958</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>4.574690899292686</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>6.049171537475494</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>7.398033258238116</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>8.480613706900035</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>9.204290067271584</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>6.260777672098796</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>2.965273710219728</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>2.965273710219728</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>8.674355930293379</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>9.226558710074723</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9.93318815143185</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>10.67822982058441</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>11.40555606409453</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>12.07735957113994</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>12.65220352905942</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>11.63382851358407</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>11.63382851358407</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>11.63382851358407</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.338324551705</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3.55650787565989</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.2610039137808228</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.16031070171375</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>2.508138455589631</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>4.180237967355347</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>6.040770853278586</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>7.931409106423309</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>9.716685196678942</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>11.24037703589</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>12.38460615143388</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>13.05019568904111</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>10.14751579941803</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>6.852011837538958</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>6.852011837538958</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2.965273710219728</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2.965273710219728</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.4561956203818616</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.9918165824064465</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.907278118958099</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3.138229129822361</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>4.574690899292686</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>6.049171537475494</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>7.398033258238116</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>8.480613706900035</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>9.204290067271584</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>9.556281633977864</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>6.260777672098796</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>6.260777672098796</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>6.260777672098796</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>6.260777672098796</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.2610039137808222</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.5970352923692028</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.149238072150546</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.855867513507673</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>2.600909182660232</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.328235426170353</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>4.000038933215762</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>4.574882891135243</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>4.97287505111693</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.97287505111693</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.677371089237862</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>341.0245550495866</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>246.9041403765403</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>163.5203019927019</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1324.558407907193</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>916.2722842068466</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1067.259851166297</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1067.259851166297</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1503.042641210471</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1067.132856384915</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>633.3581115432103</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>205.490681952418</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1941.185114027047</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1941.185114027047</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>466.8465525652588</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>179.8910444356893</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1122.013229783223</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>725.214226705391</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1695.69753337627</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1695.69753337627</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1695.69753337627</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1525.939529627007</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1576.780069686593</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1673.580170254151</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1797.450971872449</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1928.055364210978</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>2114.935822781149</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1887.516152095257</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1745.473006065472</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1576.780069686593</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1673.580170254151</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1797.450971872449</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1928.055364210978</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>2055.554276014868</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1517.87440598441</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1922.18510463116</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1486.275319805605</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1052.5005749639</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>624.6331453731077</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>225.1304540525849</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>341.0245550495866</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>246.9041403765403</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>163.5203019927019</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>547.5837284841764</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>381.7057356856991</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>720.1454400009515</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>720.1454400009515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1048.25984177041</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>1486.402314586987</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>341.0245550495866</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>246.9041403765403</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>163.5203019927019</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>326.7831174369941</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>457.3875097755235</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>584.8864215794131</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>702.6523029271749</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>803.4213591048584</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>873.1886303355141</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>889.6597230122815</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>611.2730910610244</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>324.3175829314549</v>
       </c>
     </row>
   </sheetData>
@@ -23729,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>418.7740258577984</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>430.4984991661506</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23744,13 +23746,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,13 +23782,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.5714639696243</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -23795,10 +23797,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>411.6884898642221</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>401.3296093726162</v>
       </c>
     </row>
     <row r="18">
@@ -23823,10 +23825,10 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H18" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23859,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U18" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V18" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W18" t="n">
-        <v>183.4695267241379</v>
+        <v>180.2069778018777</v>
       </c>
       <c r="X18" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>125.2209214285714</v>
+        <v>122.5436943300969</v>
       </c>
     </row>
     <row r="19">
@@ -23902,13 +23904,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>157.5652879271376</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>241.9979353960955</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>266.0435914473111</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23972,7 +23974,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>428.2881380550396</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23981,13 +23983,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3731502167427</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>79.69781087889746</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>217.819703146337</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6292234284552</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>397.5443511208167</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -24045,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>120.0908620689655</v>
+        <v>116.8283131467052</v>
       </c>
       <c r="C21" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>94.13938596491228</v>
+        <v>91.46215886643776</v>
       </c>
       <c r="E21" t="n">
         <v>93.17921052631581</v>
@@ -24060,10 +24062,10 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>84.53123883647795</v>
+        <v>84.52551230889576</v>
       </c>
       <c r="H21" t="n">
-        <v>41.31829566194965</v>
+        <v>41.26298946135317</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>62.82088317610075</v>
+        <v>62.71451543789636</v>
       </c>
       <c r="T21" t="n">
-        <v>128.8768572327044</v>
+        <v>128.8537753079323</v>
       </c>
       <c r="U21" t="n">
-        <v>174.5731815300314</v>
+        <v>174.5728047847957</v>
       </c>
       <c r="V21" t="n">
-        <v>197.1263427586206</v>
+        <v>193.8637938363604</v>
       </c>
       <c r="W21" t="n">
         <v>183.4695267241379</v>
@@ -24139,13 +24141,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9305612960722</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>137.0582644452404</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>20.98777588476758</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>154.3027390048774</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>243.400138899798</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6484088706061</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
@@ -24269,7 +24271,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>265.3352856806297</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24282,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,13 +24378,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>31.06224974936097</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>386.6061612493511</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24449,19 +24451,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24519,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24610,16 +24612,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>31.62068244366347</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -24689,16 +24691,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>76.26798902256155</v>
       </c>
       <c r="G29" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24756,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24850,13 +24852,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>82.23880122752334</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -24917,25 +24919,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>397.3838530629687</v>
+        <v>238.8063753078889</v>
       </c>
       <c r="H32" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24980,7 +24982,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -24993,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25078,7 +25080,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>32.86156491262531</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -25087,13 +25089,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -25166,13 +25168,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>22.12002573942908</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25230,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25318,19 +25320,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>166.9555110916899</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -25375,10 +25377,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>35.5015172677048</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25467,25 +25469,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25561,13 +25563,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>234.7909711565238</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -25628,25 +25630,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>90.87967246293482</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25755,25 +25757,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,25 +25788,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>116.2668128670572</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25865,7 +25867,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -25874,16 +25876,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>95.07799832448967</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>120.0908620689655</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>94.13938596491228</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>93.17921052631581</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>82.55</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.53123883647795</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.31829566194965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>62.82088317610075</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>128.8768572327044</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>174.5731815300314</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>197.1263427586206</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>183.4695267241379</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>153.3187614035088</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>125.2209214285714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26026,22 +26028,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>64.81927529967876</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2114.686156737119</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>2114.686156737097</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>370538.9985538288</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>370538.9985538289</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>370538.9985538288</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>370538.9985538286</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>370538.9985538289</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>370538.9985538287</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>370538.9985538288</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>370538.9985538287</v>
       </c>
     </row>
   </sheetData>
@@ -26326,34 +26328,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>678.2955597081281</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>678.2955597081278</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>118852.1316116056</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>118852.1316116056</v>
       </c>
     </row>
     <row r="3">
@@ -26378,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2964.145017549303</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>505352.9283264389</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>785.1356606908854</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,34 +26432,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2.31094598173203</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.31094598173203</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>414.290544423169</v>
       </c>
     </row>
     <row r="5">
@@ -26482,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>256.4018338459632</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26534,34 +26536,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-2544.56223766887</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>419.5827798804326</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-432966.1684688943</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>72386.75985754456</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>72386.75985754456</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>72386.75985754454</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>72386.75985754453</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>72386.75985754456</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>71601.62419685366</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>72386.75985754456</v>
       </c>
     </row>
   </sheetData>
@@ -26750,34 +26752,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26802,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26972,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.662332998740293</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>464.0395950944809</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27024,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>586.819345439674</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260391</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3.262548922260277</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.01070284622609162</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.1096105239129608</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.803309182076396</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.539082665869759</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.6723126642497284</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.2438911083770631</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.0468517093547161</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.0008562276980873296</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.005726527582196102</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.05530620059647288</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.9247086227794469</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7309862225975235</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.3555470370770528</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>0.1063677382043881</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.0003767452356707963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.004800928358384134</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.04268461758636079</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.1443770091775884</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.5577805856377201</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.7137671124819468</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.7525673425783419</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.7346729732425471</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.5806504625449318</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.4020122828097842</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.08366708784565802</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.02051305753127766</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.0002618688195482258</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>62.32672164233625</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.8415936408238415</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.77787936116992</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.84111043195199</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.9083906948817464</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.688989405823954</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1.909735609237095</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1.53908266586976</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.09351560470901</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>0.7309862225975223</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.3394256349377578</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.5577805856377207</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.7346729732425477</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>0.6785894010559694</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.5806504625449325</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.361442175632203</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.879326147397212</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.803309182076397</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.155786985397853</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.5410312747723081</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.9247086227794468</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.243384859458851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.362486586628912</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.09351560470901</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7309862225975223</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>0.3555470370770522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>0.3394256349377582</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>0.7137671124819467</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.7525673425783421</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>0.7346729732425472</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.6785894010559681</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.4020122828097845</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>202.6072676879467</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>59.50067040624549</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>59.50067040624549</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>296.0766412766677</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_17.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-84228.42901841072</v>
+        <v>-94318.8345773273</v>
       </c>
     </row>
     <row r="7">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2.677227098474515</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>2.677227098474517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.402203503702471</v>
+        <v>1.402203503702469</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="U20" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>2.873653090726851</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>3.262548922260277</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>2.677227098474517</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2.677227098474515</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.402203503702469</v>
       </c>
       <c r="H22" t="n">
-        <v>1.40220350370247</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>330.7211180815056</v>
       </c>
       <c r="X23" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H24" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306968</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>131.3576479578672</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>211.8755873705607</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.43041353070757</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>163.984405934623</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>143.3193010541979</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.3193010541979</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>347.3207662723228</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>193.612659770236</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>80.85496735608342</v>
+        <v>5.033780699103743</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>156.7012890994286</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>110.3412622429761</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3158,13 +3158,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
       </c>
       <c r="U33" t="n">
-        <v>174.5071388043577</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V33" t="n">
         <v>197.1263427586206</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.3576479578672</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>131.3576479578672</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3268,7 +3268,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>340.4913721701785</v>
       </c>
       <c r="H35" t="n">
         <v>267.0243359415286</v>
@@ -3328,13 +3328,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>392.8310130470533</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H36" t="n">
-        <v>31.62322353306969</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>157.107226184174</v>
       </c>
       <c r="F37" t="n">
-        <v>7.984472406171453</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>386.5350575123539</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,13 +3514,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>262.0832236599862</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426318</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T39" t="n">
-        <v>124.8306395731037</v>
+        <v>124.8306395731035</v>
       </c>
       <c r="U39" t="n">
         <v>174.5071388043578</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>5.033780699103314</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
@@ -3723,7 +3723,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>34.51516921304759</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>176.1446634785938</v>
+        <v>213.5382021707739</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>155.9817818972882</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>167.8191401812166</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>328.5107569703947</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735098</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>116.766499915569</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>44.1748202942631</v>
+        <v>44.17482029426311</v>
       </c>
       <c r="T45" t="n">
         <v>124.8306395731037</v>
@@ -4137,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>99.39993757081376</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>61.87667076770165</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J17" t="n">
-        <v>1.160310701713751</v>
+        <v>1.160310701713749</v>
       </c>
       <c r="K17" t="n">
-        <v>2.508138455589632</v>
+        <v>2.50813845558963</v>
       </c>
       <c r="L17" t="n">
-        <v>4.180237967355347</v>
+        <v>4.180237967355345</v>
       </c>
       <c r="M17" t="n">
-        <v>6.040770853278587</v>
+        <v>6.040770853278584</v>
       </c>
       <c r="N17" t="n">
-        <v>7.931409106423311</v>
+        <v>7.931409106423307</v>
       </c>
       <c r="O17" t="n">
-        <v>9.716685196678942</v>
+        <v>9.716685196678938</v>
       </c>
       <c r="P17" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q17" t="n">
-        <v>12.38460615143388</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R17" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="S17" t="n">
-        <v>13.05019568904111</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T17" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="U17" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="V17" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="W17" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="X17" t="n">
-        <v>9.75469172716204</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y17" t="n">
-        <v>6.852011837538958</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.2610039137808222</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2610039137808222</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2610039137808222</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2610039137808222</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2610039137808222</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I18" t="n">
-        <v>0.4561956203818616</v>
+        <v>0.4561956203818615</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9918165824064465</v>
+        <v>0.9918165824064463</v>
       </c>
       <c r="K18" t="n">
-        <v>1.907278118958099</v>
+        <v>1.907278118958098</v>
       </c>
       <c r="L18" t="n">
-        <v>3.138229129822361</v>
+        <v>3.13822912982236</v>
       </c>
       <c r="M18" t="n">
-        <v>4.574690899292686</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N18" t="n">
-        <v>6.049171537475494</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O18" t="n">
-        <v>7.398033258238116</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P18" t="n">
-        <v>8.480613706900035</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.204290067271584</v>
+        <v>9.204290067271581</v>
       </c>
       <c r="R18" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="S18" t="n">
-        <v>9.556281633977864</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="T18" t="n">
-        <v>9.556281633977864</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="U18" t="n">
-        <v>9.556281633977864</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="V18" t="n">
-        <v>6.260777672098796</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="W18" t="n">
-        <v>2.965273710219728</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="X18" t="n">
-        <v>2.965273710219728</v>
+        <v>2.965273710219726</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2610039137808222</v>
+        <v>2.965273710219726</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.338324551705</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="C19" t="n">
-        <v>8.338324551705</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="D19" t="n">
-        <v>8.338324551705</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E19" t="n">
-        <v>8.338324551705</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F19" t="n">
-        <v>8.338324551705</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G19" t="n">
-        <v>8.338324551705</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H19" t="n">
-        <v>8.338324551705</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I19" t="n">
-        <v>8.338324551705</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J19" t="n">
-        <v>8.674355930293379</v>
+        <v>0.5970352923692026</v>
       </c>
       <c r="K19" t="n">
-        <v>9.226558710074723</v>
+        <v>1.149238072150545</v>
       </c>
       <c r="L19" t="n">
-        <v>9.93318815143185</v>
+        <v>1.855867513507672</v>
       </c>
       <c r="M19" t="n">
-        <v>10.67822982058441</v>
+        <v>2.600909182660231</v>
       </c>
       <c r="N19" t="n">
-        <v>11.40555606409453</v>
+        <v>3.328235426170352</v>
       </c>
       <c r="O19" t="n">
-        <v>12.07735957113994</v>
+        <v>4.000038933215761</v>
       </c>
       <c r="P19" t="n">
-        <v>12.65220352905942</v>
+        <v>4.574882891135243</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="R19" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="S19" t="n">
-        <v>13.05019568904111</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="T19" t="n">
-        <v>11.63382851358407</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="U19" t="n">
-        <v>11.63382851358407</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="V19" t="n">
-        <v>11.63382851358407</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="W19" t="n">
-        <v>8.338324551705</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="X19" t="n">
-        <v>8.338324551705</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.338324551705</v>
+        <v>3.556507875659889</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.852011837538958</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C20" t="n">
-        <v>6.852011837538958</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D20" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E20" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F20" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G20" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2610039137808228</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J20" t="n">
-        <v>1.16031070171375</v>
+        <v>1.160310701713751</v>
       </c>
       <c r="K20" t="n">
-        <v>2.508138455589631</v>
+        <v>2.508138455589632</v>
       </c>
       <c r="L20" t="n">
         <v>4.180237967355347</v>
@@ -5767,37 +5767,37 @@
         <v>7.931409106423309</v>
       </c>
       <c r="O20" t="n">
-        <v>9.716685196678942</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P20" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q20" t="n">
-        <v>12.38460615143388</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R20" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="S20" t="n">
-        <v>10.14751579941803</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T20" t="n">
-        <v>10.14751579941803</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="U20" t="n">
-        <v>10.14751579941803</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="V20" t="n">
-        <v>10.14751579941803</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W20" t="n">
-        <v>6.852011837538958</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="X20" t="n">
-        <v>6.852011837538958</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.852011837538958</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2.965273710219728</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="C21" t="n">
-        <v>2.965273710219728</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2610039137808222</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I21" t="n">
-        <v>0.4561956203818616</v>
+        <v>0.4561956203818615</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9918165824064465</v>
+        <v>0.9918165824064463</v>
       </c>
       <c r="K21" t="n">
-        <v>1.907278118958099</v>
+        <v>1.907278118958098</v>
       </c>
       <c r="L21" t="n">
-        <v>3.138229129822361</v>
+        <v>3.13822912982236</v>
       </c>
       <c r="M21" t="n">
-        <v>4.574690899292686</v>
+        <v>4.574690899292685</v>
       </c>
       <c r="N21" t="n">
-        <v>6.049171537475494</v>
+        <v>6.049171537475493</v>
       </c>
       <c r="O21" t="n">
-        <v>7.398033258238116</v>
+        <v>7.398033258238114</v>
       </c>
       <c r="P21" t="n">
-        <v>8.480613706900035</v>
+        <v>8.480613706900034</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.204290067271584</v>
+        <v>9.204290067271581</v>
       </c>
       <c r="R21" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="S21" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="T21" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="U21" t="n">
-        <v>9.556281633977864</v>
+        <v>9.556281633977861</v>
       </c>
       <c r="V21" t="n">
-        <v>6.260777672098796</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="W21" t="n">
-        <v>6.260777672098796</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="X21" t="n">
-        <v>6.260777672098796</v>
+        <v>6.260777672098794</v>
       </c>
       <c r="Y21" t="n">
-        <v>6.260777672098796</v>
+        <v>6.260777672098794</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="C22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="D22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="E22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="F22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="G22" t="n">
-        <v>1.677371089237862</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J22" t="n">
-        <v>0.5970352923692028</v>
+        <v>0.5970352923692026</v>
       </c>
       <c r="K22" t="n">
-        <v>1.149238072150546</v>
+        <v>1.149238072150545</v>
       </c>
       <c r="L22" t="n">
-        <v>1.855867513507673</v>
+        <v>1.855867513507672</v>
       </c>
       <c r="M22" t="n">
-        <v>2.600909182660232</v>
+        <v>2.600909182660231</v>
       </c>
       <c r="N22" t="n">
-        <v>3.328235426170353</v>
+        <v>3.328235426170352</v>
       </c>
       <c r="O22" t="n">
-        <v>4.000038933215762</v>
+        <v>4.000038933215761</v>
       </c>
       <c r="P22" t="n">
         <v>4.574882891135243</v>
       </c>
       <c r="Q22" t="n">
-        <v>4.97287505111693</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="R22" t="n">
-        <v>4.97287505111693</v>
+        <v>4.972875051116929</v>
       </c>
       <c r="S22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="T22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="U22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="V22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="W22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="X22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.677371089237862</v>
+        <v>1.677371089237861</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1782.900983623584</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="C23" t="n">
-        <v>1344.758510807007</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="D23" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E23" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="X23" t="n">
-        <v>2209.200554108492</v>
+        <v>1152.340579151123</v>
       </c>
       <c r="Y23" t="n">
-        <v>2209.200554108492</v>
+        <v>1152.340579151123</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E24" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235846</v>
       </c>
       <c r="H24" t="n">
         <v>47.20655154895474</v>
@@ -6107,13 +6107,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W24" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X24" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y24" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>110.3018381127067</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="C25" t="n">
-        <v>110.3018381127067</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="D25" t="n">
-        <v>110.3018381127067</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="E25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6174,25 +6174,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S25" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T25" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="U25" t="n">
-        <v>611.2730910610244</v>
+        <v>466.8465525652588</v>
       </c>
       <c r="V25" t="n">
-        <v>324.3175829314549</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="W25" t="n">
-        <v>324.3175829314549</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="X25" t="n">
-        <v>110.3018381127067</v>
+        <v>179.8910444356893</v>
       </c>
       <c r="Y25" t="n">
-        <v>110.3018381127067</v>
+        <v>179.8910444356893</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>880.4839877111824</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="C26" t="n">
-        <v>880.4839877111824</v>
+        <v>882.6190276950331</v>
       </c>
       <c r="D26" t="n">
-        <v>880.4839877111824</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E26" t="n">
         <v>446.7092428694776</v>
@@ -6217,25 +6217,25 @@
         <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>2148.556325916849</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>2148.556325916849</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W26" t="n">
-        <v>1743.700871327883</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="X26" t="n">
-        <v>1324.558407907193</v>
+        <v>1320.76150051161</v>
       </c>
       <c r="Y26" t="n">
-        <v>916.2722842068466</v>
+        <v>1320.76150051161</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E27" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G27" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>324.3175829314549</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="C28" t="n">
-        <v>324.3175829314549</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="D28" t="n">
-        <v>324.3175829314549</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="E28" t="n">
-        <v>324.3175829314549</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="F28" t="n">
         <v>179.5506121696388</v>
@@ -6378,10 +6378,10 @@
         <v>179.5506121696388</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
         <v>106.1122152511379</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1067.259851166297</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C29" t="n">
-        <v>1067.259851166297</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D29" t="n">
-        <v>1067.259851166297</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E29" t="n">
-        <v>1067.259851166297</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F29" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G29" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
         <v>118.4065018001353</v>
@@ -6466,13 +6466,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6493,22 +6493,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>1486.402314586986</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>1486.402314586986</v>
+        <v>1915.005753073567</v>
       </c>
       <c r="X29" t="n">
-        <v>1067.259851166297</v>
+        <v>1719.437409871309</v>
       </c>
       <c r="Y29" t="n">
-        <v>1067.259851166297</v>
+        <v>1311.151286170962</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="C31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="D31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="E31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="F31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H31" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
         <v>106.1122152511379</v>
@@ -6660,13 +6660,13 @@
         <v>324.3175829314549</v>
       </c>
       <c r="W31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="X31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
       <c r="Y31" t="n">
-        <v>324.3175829314549</v>
+        <v>52.2911785177464</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1941.185114027047</v>
+        <v>1588.348011983849</v>
       </c>
       <c r="C32" t="n">
-        <v>1503.042641210471</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="D32" t="n">
-        <v>1067.132856384915</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E32" t="n">
-        <v>633.3581115432103</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F32" t="n">
-        <v>205.490681952418</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L32" t="n">
         <v>805.4408022867023</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>1996.634135684195</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>1996.634135684195</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>1996.634135684195</v>
       </c>
       <c r="X32" t="n">
-        <v>1941.185114027047</v>
+        <v>1996.634135684195</v>
       </c>
       <c r="Y32" t="n">
-        <v>1941.185114027047</v>
+        <v>1588.348011983849</v>
       </c>
     </row>
     <row r="33">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8910444356893</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="C34" t="n">
-        <v>179.8910444356893</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="D34" t="n">
         <v>47.20655154895473</v>
@@ -6888,22 +6888,22 @@
         <v>745.2331845165158</v>
       </c>
       <c r="T34" t="n">
-        <v>745.2331845165158</v>
+        <v>612.5486916297813</v>
       </c>
       <c r="U34" t="n">
-        <v>466.8465525652588</v>
+        <v>334.1620596785243</v>
       </c>
       <c r="V34" t="n">
-        <v>179.8910444356893</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="W34" t="n">
-        <v>179.8910444356893</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="X34" t="n">
-        <v>179.8910444356893</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="Y34" t="n">
-        <v>179.8910444356893</v>
+        <v>47.20655154895473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>316.9281030050443</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="C35" t="n">
-        <v>316.9281030050443</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="D35" t="n">
-        <v>316.9281030050443</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="E35" t="n">
-        <v>316.9281030050443</v>
+        <v>1088.726211555613</v>
       </c>
       <c r="F35" t="n">
-        <v>316.9281030050443</v>
+        <v>660.8587819648205</v>
       </c>
       <c r="G35" t="n">
         <v>316.9281030050443</v>
@@ -6943,16 +6943,16 @@
         <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6976,13 +6976,13 @@
         <v>1526.868684372189</v>
       </c>
       <c r="W35" t="n">
-        <v>1122.013229783223</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X35" t="n">
-        <v>725.214226705391</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y35" t="n">
-        <v>316.9281030050443</v>
+        <v>1526.868684372189</v>
       </c>
     </row>
     <row r="36">
@@ -6995,7 +6995,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
         <v>341.0245550495863</v>
@@ -7007,7 +7007,7 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H36" t="n">
         <v>47.20655154895473</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1695.69753337627</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="C37" t="n">
-        <v>1695.69753337627</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="D37" t="n">
-        <v>1695.69753337627</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="E37" t="n">
-        <v>1525.939529627007</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F37" t="n">
-        <v>1517.87440598441</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G37" t="n">
-        <v>1517.87440598441</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>1797.450971872449</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M37" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N37" t="n">
-        <v>2055.554276014868</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540313</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T37" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U37" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V37" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W37" t="n">
-        <v>2360.327577447737</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X37" t="n">
-        <v>2114.935822781149</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="Y37" t="n">
-        <v>1887.516152095257</v>
+        <v>502.9859604199224</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1355.033554032792</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="C38" t="n">
-        <v>916.8910812162151</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="D38" t="n">
-        <v>480.9812963906596</v>
+        <v>1015.43337679623</v>
       </c>
       <c r="E38" t="n">
-        <v>47.20655154895473</v>
+        <v>581.6586319545254</v>
       </c>
       <c r="F38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
         <v>805.440802286702</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U38" t="n">
-        <v>2108.089956131646</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V38" t="n">
-        <v>1745.473006065472</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W38" t="n">
-        <v>1745.473006065472</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X38" t="n">
-        <v>1745.473006065472</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="Y38" t="n">
-        <v>1745.473006065472</v>
+        <v>1889.485634438362</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043084</v>
@@ -7256,22 +7256,22 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987878</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599445</v>
+        <v>1488.088567599444</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="C40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="D40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="E40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="F40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="G40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I40" t="n">
-        <v>1517.87440598441</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>1576.780069686593</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>1673.580170254151</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1797.450971872449</v>
+        <v>326.7831174369939</v>
       </c>
       <c r="M40" t="n">
-        <v>1928.055364210978</v>
+        <v>457.3875097755233</v>
       </c>
       <c r="N40" t="n">
-        <v>2055.554276014868</v>
+        <v>584.8864215794127</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>702.6523029271746</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540313</v>
+        <v>803.421359104858</v>
       </c>
       <c r="Q40" t="n">
-        <v>2343.856484770969</v>
+        <v>873.1886303355136</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>889.659723012281</v>
       </c>
       <c r="T40" t="n">
-        <v>2118.080353351143</v>
+        <v>889.659723012281</v>
       </c>
       <c r="U40" t="n">
-        <v>1839.693721399886</v>
+        <v>611.2730910610239</v>
       </c>
       <c r="V40" t="n">
-        <v>1552.738213270316</v>
+        <v>324.3175829314544</v>
       </c>
       <c r="W40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="X40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
       <c r="Y40" t="n">
-        <v>1517.87440598441</v>
+        <v>52.29117851774595</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2360.327577447737</v>
+        <v>662.40439657733</v>
       </c>
       <c r="C41" t="n">
-        <v>1922.18510463116</v>
+        <v>662.40439657733</v>
       </c>
       <c r="D41" t="n">
-        <v>1486.275319805605</v>
+        <v>662.40439657733</v>
       </c>
       <c r="E41" t="n">
-        <v>1052.5005749639</v>
+        <v>662.40439657733</v>
       </c>
       <c r="F41" t="n">
-        <v>624.6331453731077</v>
+        <v>662.40439657733</v>
       </c>
       <c r="G41" t="n">
-        <v>225.1304540525849</v>
+        <v>262.9017052568071</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1486.402314586986</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1081.546859998019</v>
       </c>
       <c r="X41" t="n">
-        <v>2360.327577447737</v>
+        <v>662.40439657733</v>
       </c>
       <c r="Y41" t="n">
-        <v>2360.327577447737</v>
+        <v>662.40439657733</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J42" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L42" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
         <v>1614.947661807679</v>
@@ -7529,13 +7529,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>720.1454400009515</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="C43" t="n">
-        <v>547.5837284841764</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="D43" t="n">
-        <v>381.7057356856991</v>
+        <v>337.1079676214451</v>
       </c>
       <c r="E43" t="n">
-        <v>211.9477319364363</v>
+        <v>337.1079676214451</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>337.1079676214451</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K43" t="n">
         <v>202.912315818696</v>
@@ -7596,25 +7596,25 @@
         <v>889.6597230122813</v>
       </c>
       <c r="S43" t="n">
-        <v>889.6597230122813</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T43" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="U43" t="n">
-        <v>889.6597230122813</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="V43" t="n">
-        <v>720.1454400009515</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="W43" t="n">
-        <v>720.1454400009515</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="X43" t="n">
-        <v>720.1454400009515</v>
+        <v>502.9859604199224</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.1454400009515</v>
+        <v>502.9859604199224</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1486.402314586987</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="C44" t="n">
-        <v>1048.25984177041</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="D44" t="n">
-        <v>1048.25984177041</v>
+        <v>750.7028478467491</v>
       </c>
       <c r="E44" t="n">
-        <v>1048.25984177041</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F44" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G44" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
         <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7681,19 +7681,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V44" t="n">
-        <v>1486.402314586987</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W44" t="n">
-        <v>1486.402314586987</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X44" t="n">
-        <v>1486.402314586987</v>
+        <v>1585.288542032004</v>
       </c>
       <c r="Y44" t="n">
-        <v>1486.402314586987</v>
+        <v>1177.002418331657</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.1148439030333</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
         <v>551.5786779960905</v>
@@ -7766,13 +7766,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3175829314549</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="C46" t="n">
-        <v>324.3175829314549</v>
+        <v>510.1697853555977</v>
       </c>
       <c r="D46" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871985</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895474</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>202.9123158186961</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L46" t="n">
-        <v>326.7831174369941</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M46" t="n">
-        <v>457.3875097755235</v>
+        <v>457.3875097755234</v>
       </c>
       <c r="N46" t="n">
-        <v>584.8864215794131</v>
+        <v>584.886421579413</v>
       </c>
       <c r="O46" t="n">
-        <v>702.6523029271749</v>
+        <v>702.6523029271748</v>
       </c>
       <c r="P46" t="n">
-        <v>803.4213591048584</v>
+        <v>803.4213591048583</v>
       </c>
       <c r="Q46" t="n">
-        <v>873.1886303355141</v>
+        <v>873.1886303355139</v>
       </c>
       <c r="R46" t="n">
-        <v>889.6597230122815</v>
+        <v>889.6597230122813</v>
       </c>
       <c r="S46" t="n">
-        <v>889.6597230122815</v>
+        <v>745.2331845165158</v>
       </c>
       <c r="T46" t="n">
-        <v>889.6597230122815</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="U46" t="n">
-        <v>611.2730910610244</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="V46" t="n">
-        <v>324.3175829314549</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="W46" t="n">
-        <v>324.3175829314549</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="X46" t="n">
-        <v>324.3175829314549</v>
+        <v>682.7314968723728</v>
       </c>
       <c r="Y46" t="n">
-        <v>324.3175829314549</v>
+        <v>682.7314968723728</v>
       </c>
     </row>
   </sheetData>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>418.7740258577984</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>430.4984991661506</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -23746,10 +23746,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3731502167427</v>
+        <v>394.1106012944824</v>
       </c>
       <c r="H17" t="n">
-        <v>286.1292424873029</v>
+        <v>282.8666935650426</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.5714639696243</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T17" t="n">
-        <v>217.819703146337</v>
+        <v>214.9460500556102</v>
       </c>
       <c r="U17" t="n">
         <v>256.6292234284552</v>
@@ -23797,10 +23797,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>411.6884898642221</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.3296093726162</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23825,7 +23825,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>84.52551230889576</v>
+        <v>81.84828521042124</v>
       </c>
       <c r="H18" t="n">
         <v>41.26298946135317</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>62.71451543789636</v>
+        <v>59.45196651563608</v>
       </c>
       <c r="T18" t="n">
-        <v>128.8537753079323</v>
+        <v>125.591226385672</v>
       </c>
       <c r="U18" t="n">
         <v>174.5728047847957</v>
       </c>
       <c r="V18" t="n">
-        <v>193.8637938363604</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W18" t="n">
-        <v>180.2069778018777</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X18" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y18" t="n">
-        <v>122.5436943300969</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="19">
@@ -23901,7 +23901,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>171.6774345756011</v>
       </c>
       <c r="G19" t="n">
         <v>163.9305612960722</v>
@@ -23952,7 +23952,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>266.0435914473111</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -23974,7 +23974,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>428.2881380550396</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -23986,7 +23986,7 @@
         <v>397.3731502167427</v>
       </c>
       <c r="H20" t="n">
-        <v>282.8666935650426</v>
+        <v>286.1292424873029</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>79.69781087889746</v>
+        <v>79.30891504736402</v>
       </c>
       <c r="T20" t="n">
-        <v>217.819703146337</v>
+        <v>214.5571542240768</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6292234284552</v>
+        <v>253.3666745061949</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>397.5443511208167</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>401.3296093726162</v>
       </c>
     </row>
     <row r="21">
@@ -24047,22 +24047,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>116.8283131467052</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C21" t="n">
         <v>105.3918965517241</v>
       </c>
       <c r="D21" t="n">
-        <v>91.46215886643776</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E21" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F21" t="n">
-        <v>82.55</v>
+        <v>79.87277290152548</v>
       </c>
       <c r="G21" t="n">
-        <v>84.52551230889576</v>
+        <v>81.26296338663548</v>
       </c>
       <c r="H21" t="n">
         <v>41.26298946135317</v>
@@ -24141,10 +24141,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9305612960722</v>
+        <v>162.5283577923697</v>
       </c>
       <c r="H22" t="n">
-        <v>137.0582644452404</v>
+        <v>138.4604679489429</v>
       </c>
       <c r="I22" t="n">
         <v>87.62897272389382</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>70.08578196157146</v>
       </c>
       <c r="X23" t="n">
-        <v>265.3352856806297</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -24372,7 +24372,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>36.7027757539029</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -24384,7 +24384,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>239.8247518556274</v>
@@ -24429,7 +24429,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>31.06224974936097</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>386.6061612493511</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
         <v>423.5887552948843</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>236.822494108454</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>46.58113147759937</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -24612,7 +24612,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>31.62068244366347</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.0937685836068</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>431.5506869772999</v>
@@ -24691,13 +24691,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>76.26798902256155</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>221.3383790162464</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24852,13 +24852,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>82.23880122752334</v>
+        <v>158.059987884503</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>238.8063753078889</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>146.1387223207251</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>32.86156491262531</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>108.4671038977602</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -25165,10 +25165,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>55.01629223713911</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>22.12002573942908</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
@@ -25320,16 +25320,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>10.9531975275961</v>
       </c>
       <c r="F37" t="n">
-        <v>166.9555110916899</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>275.6027656317444</v>
@@ -25377,10 +25377,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35.5015172677048</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>161.5055316348981</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.061706087351</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25563,13 +25563,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>158.0599878845034</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>234.7909711565238</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>90.87967246293482</v>
+        <v>53.48613377075478</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,22 +25788,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>7.111986686318545</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
-        <v>116.2668128670572</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>95.07799832448967</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>298.1845388709135</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,22 +26025,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>64.81927529967876</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>239.8247518556274</v>
+        <v>177.9480810879258</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2114.686156737119</v>
+        <v>2114.686156737114</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2114.686156737097</v>
+        <v>2114.686156737105</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>370538.9985538289</v>
+        <v>370538.9985538288</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>370538.9985538288</v>
+        <v>370538.9985538287</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>370538.9985538287</v>
+        <v>370538.9985538286</v>
       </c>
     </row>
     <row r="15">
@@ -26328,16 +26328,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>678.2955597081281</v>
+        <v>678.2955597081277</v>
       </c>
       <c r="H2" t="n">
-        <v>678.2955597081278</v>
+        <v>678.2955597081277</v>
       </c>
       <c r="I2" t="n">
         <v>118852.1316116055</v>
       </c>
       <c r="J2" t="n">
-        <v>118852.1316116056</v>
+        <v>118852.1316116055</v>
       </c>
       <c r="K2" t="n">
         <v>118852.1316116055</v>
@@ -26355,7 +26355,7 @@
         <v>118852.1316116055</v>
       </c>
       <c r="P2" t="n">
-        <v>118852.1316116056</v>
+        <v>118852.1316116055</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2964.145017549303</v>
+        <v>2964.145017549301</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>785.1356606908854</v>
+        <v>785.1356606908578</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,19 +26432,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.31094598173203</v>
+        <v>2.310945981732029</v>
       </c>
       <c r="H4" t="n">
-        <v>2.31094598173203</v>
+        <v>2.310945981732029</v>
       </c>
       <c r="I4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="J4" t="n">
         <v>414.2905444231689</v>
       </c>
       <c r="K4" t="n">
-        <v>414.2905444231689</v>
+        <v>414.290544423169</v>
       </c>
       <c r="L4" t="n">
         <v>414.2905444231689</v>
@@ -26459,7 +26459,7 @@
         <v>414.2905444231689</v>
       </c>
       <c r="P4" t="n">
-        <v>414.290544423169</v>
+        <v>414.2905444231689</v>
       </c>
     </row>
     <row r="5">
@@ -26493,10 +26493,10 @@
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
+        <v>46051.08120963781</v>
+      </c>
+      <c r="K5" t="n">
         <v>46051.08120963782</v>
-      </c>
-      <c r="K5" t="n">
-        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963781</v>
@@ -26508,10 +26508,10 @@
         <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-1340.368299726021</v>
       </c>
       <c r="G6" t="n">
-        <v>-2544.56223766887</v>
+        <v>-3880.940563514254</v>
       </c>
       <c r="H6" t="n">
-        <v>419.5827798804326</v>
+        <v>-916.7955459649522</v>
       </c>
       <c r="I6" t="n">
-        <v>-432966.1684688943</v>
+        <v>-433607.4065826697</v>
       </c>
       <c r="J6" t="n">
-        <v>72386.75985754456</v>
+        <v>71745.52174376916</v>
       </c>
       <c r="K6" t="n">
-        <v>72386.75985754456</v>
+        <v>71745.52174376915</v>
       </c>
       <c r="L6" t="n">
-        <v>72386.75985754454</v>
+        <v>71745.52174376913</v>
       </c>
       <c r="M6" t="n">
-        <v>72386.75985754453</v>
+        <v>71745.52174376916</v>
       </c>
       <c r="N6" t="n">
-        <v>72386.75985754456</v>
+        <v>71745.52174376913</v>
       </c>
       <c r="O6" t="n">
-        <v>71601.62419685366</v>
+        <v>70960.38608307828</v>
       </c>
       <c r="P6" t="n">
-        <v>72386.75985754456</v>
+        <v>71745.52174376915</v>
       </c>
     </row>
   </sheetData>
@@ -26752,10 +26752,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="I3" t="n">
         <v>466.7019280932212</v>
@@ -26773,13 +26773,13 @@
         <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26804,19 +26804,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="K4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619341</v>
@@ -26825,13 +26825,13 @@
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="O4" t="n">
+        <v>590.081894361934</v>
+      </c>
+      <c r="P4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="P4" t="n">
-        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260391</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32232,10 +32232,10 @@
         <v>0.1096105239129608</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
@@ -32244,10 +32244,10 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O17" t="n">
         <v>1.803309182076396</v>
@@ -32259,16 +32259,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S17" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I18" t="n">
         <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458851</v>
@@ -32335,19 +32335,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R18" t="n">
-        <v>0.3555470370770528</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T18" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M19" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R19" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S19" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,10 +32469,10 @@
         <v>0.1096105239129608</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K20" t="n">
         <v>1.361442175632203</v>
@@ -32481,10 +32481,10 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M20" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N20" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O20" t="n">
         <v>1.803309182076396</v>
@@ -32496,16 +32496,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S20" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T20" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H21" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I21" t="n">
         <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458851</v>
@@ -32572,19 +32572,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R21" t="n">
-        <v>0.3555470370770528</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T21" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P22" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R22" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S22" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T22" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R38" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065036</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238411</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051975</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34064,28 +34064,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130048</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
-        <v>334.7730322994722</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34395,10 +34395,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S44" t="n">
-        <v>42.75364899065038</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112867</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,46 +34441,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879938</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
-        <v>18.64606288183765</v>
+        <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06604272567356907</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,25 +34517,25 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
-        <v>25.30901603495699</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998885</v>
@@ -34547,19 +34547,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420764</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R46" t="n">
-        <v>37.84111043195199</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0459051076813005</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9083906948817464</v>
+        <v>0.9083906948817446</v>
       </c>
       <c r="K17" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L17" t="n">
-        <v>1.688989405823954</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M17" t="n">
         <v>1.879326147397212</v>
       </c>
       <c r="N17" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O17" t="n">
         <v>1.803309182076395</v>
       </c>
       <c r="P17" t="n">
-        <v>1.53908266586976</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q17" t="n">
         <v>1.155786985397851</v>
       </c>
       <c r="R17" t="n">
-        <v>0.6723126642497288</v>
+        <v>0.6723126642497306</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723078</v>
       </c>
       <c r="K18" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L18" t="n">
         <v>1.243384859458851</v>
@@ -35977,10 +35977,10 @@
         <v>1.489374382002836</v>
       </c>
       <c r="O18" t="n">
-        <v>1.362486586628912</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P18" t="n">
-        <v>1.09351560470901</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q18" t="n">
         <v>0.7309862225975223</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3394256349377578</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K19" t="n">
-        <v>0.5577805856377207</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7137671124819462</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M19" t="n">
         <v>0.7525673425783417</v>
       </c>
       <c r="N19" t="n">
-        <v>0.7346729732425477</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6785894010559694</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P19" t="n">
-        <v>0.5806504625449325</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q19" t="n">
         <v>0.4020122828097836</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817464</v>
       </c>
       <c r="K20" t="n">
         <v>1.361442175632203</v>
@@ -36135,13 +36135,13 @@
         <v>1.909735609237094</v>
       </c>
       <c r="O20" t="n">
-        <v>1.803309182076397</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P20" t="n">
         <v>1.539082665869758</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.155786985397853</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R20" t="n">
         <v>0.6723126642497288</v>
@@ -36199,10 +36199,10 @@
         <v>0.19716334000105</v>
       </c>
       <c r="J21" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723078</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9247086227794468</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L21" t="n">
         <v>1.243384859458851</v>
@@ -36214,10 +36214,10 @@
         <v>1.489374382002836</v>
       </c>
       <c r="O21" t="n">
-        <v>1.362486586628912</v>
+        <v>1.362486586628911</v>
       </c>
       <c r="P21" t="n">
-        <v>1.09351560470901</v>
+        <v>1.093515604709008</v>
       </c>
       <c r="Q21" t="n">
         <v>0.7309862225975223</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K22" t="n">
         <v>0.55778058563772</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7137671124819467</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M22" t="n">
-        <v>0.7525673425783421</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N22" t="n">
-        <v>0.7346729732425472</v>
+        <v>0.7346729732425468</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6785894010559681</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P22" t="n">
         <v>0.5806504625449316</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.4020122828097845</v>
+        <v>0.4020122828097836</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,10 +36366,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
@@ -36378,7 +36378,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
         <v>117.855135640546</v>
@@ -36603,7 +36603,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,7 +36612,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36755,7 +36755,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -36834,13 +36834,13 @@
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
@@ -36849,7 +36849,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36992,7 +36992,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -37074,7 +37074,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
         <v>329.4423112816032</v>
@@ -37311,7 +37311,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M37" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O37" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,28 +37539,28 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624549</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K40" t="n">
         <v>97.77787936116988</v>
@@ -37715,16 +37715,16 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O40" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>70.47199114207638</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027014</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L41" t="n">
         <v>296.0766412766674</v>
@@ -37791,13 +37791,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O41" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K42" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L42" t="n">
         <v>217.9630089646688</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742734</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
         <v>217.963008964669</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116994</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
